--- a/PS - Funkcionality.xlsx
+++ b/PS - Funkcionality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/226e3371a49bebd4/Dokumenty/MFVS stuff/kontrola-rozvrhu-extended/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AE6AB9B-4DE7-45D0-B276-A5EB35063DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{7AE6AB9B-4DE7-45D0-B276-A5EB35063DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{216AFB04-03FC-47F7-84A6-DDBF50727FCD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{11C6ED0A-B0A6-49BF-9D1A-08C5F446AD65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Zobrazit předměty bez chyb</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>Unseen</t>
+  </si>
+  <si>
+    <t>Formátovaný výstup</t>
+  </si>
+  <si>
+    <t>Zatím vyplivne spoustu XLSX souborů (načítat tyhle XLSX, abychom je znovu uložili pod jiným typem mi přijde neefektivní)</t>
   </si>
 </sst>
 </file>
@@ -151,11 +157,14 @@
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFA7"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -170,6 +179,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFA7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFA7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -180,20 +203,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFA7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFA7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -204,6 +213,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFA7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFA7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -224,22 +247,16 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFA7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFA7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -578,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4E369A-390F-4FF0-92E8-8502E96D2187}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,7 +739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -730,7 +747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -738,7 +755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -746,7 +763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -754,7 +771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,7 +779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -770,7 +787,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -778,7 +795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -786,7 +803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -794,7 +811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,7 +819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -810,7 +827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -818,19 +835,30 @@
         <v>18</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B28">
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="PRAVDA">
-      <formula>NOT(ISERROR(SEARCH("PRAVDA",B1)))</formula>
+  <conditionalFormatting sqref="B1:B29">
+    <cfRule type="beginsWith" dxfId="7" priority="1" operator="beginsWith" text="Pro">
+      <formula>LEFT(B1,LEN("Pro"))="Pro"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="6" priority="2" operator="beginsWith" text="Un">
+      <formula>LEFT(B1,LEN("Un"))="Un"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="2" operator="beginsWith" text="Un">
-      <formula>LEFT(B1,LEN("Un"))="Un"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="1" operator="beginsWith" text="Pro">
-      <formula>LEFT(B1,LEN("Pro"))="Pro"</formula>
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="PRAVDA">
+      <formula>NOT(ISERROR(SEARCH("PRAVDA",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
